--- a/500all/speech_level/speeches_CHRG-114hhrg94281.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94281.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412463</t>
   </si>
   <si>
-    <t>Bob Gibbs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibbs. Good morning. The hearing of the Subcommittee on Water Resources and Environment will come to order. Housekeeping here. I ask unanimous consent that the hearing record be kept open for 30 days after this hearing in order to accept other submissions of written testimony for the hearing record. Without objection, so ordered.    Today we are having a hearing on review of the President's fiscal year 2016 budget request for the United States Army Corps of Engineers and the Tennessee Valley Authority. I would like to welcome everyone here to the hearing today to review the President's fiscal request and the Tennessee Valley Authority. The administration's budget proposal for fiscal year 2016 continues an unfortunate trend of underinvesting in our Nation's water resources. Many of the Army Corps of Engineers' activities that we are examining are investments in America. For nearly two centuries, the Corps has contributed to the economic vitality of the Nation and has improved the quality of life. This administration keeps missing the opportunity to use the Civil Works Program as an investment in the country's future. This administration has time and time again not put the same priority in the Corps' program as Congress has.    Congress and the administration both need to be supportive of programs that have a proven record of providing economic benefits. The fiscal year 2016 budget request by the administration for the Corps of Engineers is $4.7 billion, which is almost $750 million less than what Congress appropriated in fiscal year 2015. This is even more unfortunate given the strong bipartisan message set last Congress by the enactment of the Water Resources Reform and Development Act of 2014.    Congress made a conscious effort in WRRDA 2014 to enhance America's competitiveness by strengthening investments in the Nation's water resources infrastructure, including wrapping up the Harbor Maintenance Trust Fund expenditures for their intended purposes. But again, the President's budget proposes to spend only $915 million of the Harbor Maintenance Trust Fund for the operation and maintenance activities in fiscal year 2016, half of what is estimated to be collected, that was collected in fiscal year 2015. These harbor maintenance taxes are paid by shippers for the purpose of maintaining America's ports.    While this administration is not the first to shortchange America's water transportation systems, requesting only half of what was collected will not keep up with the growing demand at the ports. Budgets are about priorities. A priority of any administration should be to put the United States in a competitive advantage in world markets, especially since world trade patterns are expected to be dramatically different when the Panama Canal expansion begins operations next year.    Additionally, when Congress enacted WRRDA 2014, there were several big ticket items included in the law. Provisions related to the Harbor Maintenance Trust Fund, the Inland Waterways Trust Fund, permit processing, project streamlining, WIFIA, public-private partnerships, and deauthorization of old and inactive projects were included in the law that was signed by the President in June of last year.    While the WRRDA law was transformative and at times complicated, we remain disappointed at the pace and the prioritization in which the Corps of Engineers is carrying out the drafting and implementation guidance. As we are rapidly approaching the 1-year anniversary of the enactment of WRRDA 2014, we would hope and expect the Corps would put more of a priority in writing implementation guidance. After all, WRRDA is the law of the land. It is not a suggestion for the administration to casually disregard.    I am very pleased that the subcommittee will also hear about the Tennessee Valley Authority's budget. I want to welcome the TVA's president, Bill Johnson, who will be testifying for the first time before the subcommittee. The Tennessee Valley Authority is the Nation's largest wholesale power producer and fifth largest electric utility company.    While TVA's power and nonpower programs have been funded through its revenue since 2001--meaning they receive no appropriated funds--we are concerned with the agency's overall financial health since the agency carries a rather large debt load. I anticipate that we will hear more about TVA's debt reduction plan today, especially in light of Mr. Johnson's impressive track record of reducing costs. I look forward to the testimony from our three witnesses today.    At this time I recognize Mrs. Napolitano; pardon me, we are going to go to Mr. DeFazio first.</t>
   </si>
   <si>
     <t>400290</t>
   </si>
   <si>
-    <t>Grace F. Napolitano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Napolitano. I defer to Mr. DeFazio.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400100</t>
   </si>
   <si>
-    <t>Peter A. DeFazio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeFazio. Thank you. Thank you, Mr. Chairman. Thank you, Mrs. Napolitano. You know, the Corps is an essential agency, and I don't envy the position you are in. You know, the fact is every year you come forward and you kind of have two paths with inadequate budgets. You can either, you know, sort of spread the money around and not do anything very well and drive up the cost of new projects, or you can concentrate the assets, the inadequate funding, and get some things done but then not do other things like dredging small ports, which are a lifeblood of so many communities, particularly of concern in my district. Particularly this year, since we didn't get winter flows, so we are going to have even more shoaling than normal, and if we forego that dredging, you know, people will probably die, but hey we are the United States of America, we can't afford it.    You know, this is a difficult spot to be in, and I am not--Ms. Darcy, I am not going to put you in the same spot as Mike Parker, but I do like to tell the Mike Parker story. Our former colleague had your position under President Bush, Democrat turned Republican, and Mike came to a very similar hearing and I was here and I just said to him straight up, ``Is this an adequate budget to do what you need to do and the Corps needs to do and deal with your backlog?'' and he said, ``No.'' Next week, for family reasons, he was resigning.    So I realize there are consequences, but I have got to say that I am very--you know, I will recognize this administration has poured more money into O&amp;M than any other administration in the last decade. That is good. But it is less than Congress just last year, by an unbelievably overwhelming vote, said, should be allocated. We were looking at, you know, a number that exceeded yours by about almost $2 billion. So, I am disappointed in the administration, and I know that is not up to either of you. You may put forward very honest budgets and then it goes to the trolls at OMB who don't care about infrastructure, so, you know, that is a problem.    But I think one way we could deal with that is you now will testify again this year that on your long-term planning horizon that you are working on for 8 years about all the assets you have, the state of those assets, what your projected incomes are, and what you can do with them, we haven't seen that. We should see it. Congress should understand the magnitude of the deferred maintenance that is out there, the incapability of doing the annual maintenance that is out there, and maybe we can drive faster toward actually capturing the revenue source we have and dedicating the accumulated past funds in that revenue resource in the next award or reauthorization, taking you off budget and rebuilding America's infrastructure that relates to our water more in commerce and recreation and flood control and other critical issues.    So I would really hope that you can produce that final and definitive comprehensive report because Congress should know. Congress is part of the problem. We underfund you. The administration is part of the problem. They recommend that you start out underfunded, and then Congress probably will chip a little bit more off it, so we are not in the strongest position we could be. With that, I thank you for your service. And General, I thank you for your service. You know, I want to do more for the Corps, and just give me some tools that I can use for those arguments. Thank you.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Darcy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Darcy. Thank you. Thank you, Chairman Gibbs and distinguished members of the subcommittee. Thank you for the opportunity to present the President's budget for the Civil Works Program on the Army Corps of Engineers for fiscal year 2016. This year's civil works budget reflects the administration's priorities through targeted investments in the Nation's water resources infrastructure, including dams and levees, navigation, and the restoration of ecosystems. It supports a civil works program that relies on a foundation of strong relationships between the Corps and our local communities, which allows us to work together to meet their water resources needs.    The budget also helps us in our efforts to promote the resilience of communities to respond to the impacts of climate change. We are investing in research, planning, vulnerability assessments, pilot projects, and evaluations of the value and performance of nonstructural and natural measures. The budget helps us to maintain and improve our efforts on sustainability. For example, we are reducing the Corps' carbon footprint by increasing renewable electricity consumption, reducing greenhouse gas emissions, and reducing nontactical vehicle petroleum consumption. We are also advancing our sustainability efforts by using innovative financing techniques such as energy savings performance contracts.    We are making important investments to promote the sustainable management of the lands around Corps facilities by providing funds to update the plans that govern how we manage our facilities and to help us to combat invasive species. The budget also focuses on maintaining the water resource's infrastructure that the Corps owns and manages, and on finding innovative ways to rehabilitate it, hand it over to others, or retire it.    Here are some of our funding highlights for 2016. The budget provides $4.7 billion in gross discretionary appropriations for the Army Civil Works Program, focusing on investments that will yield high economic and environmental returns, or address the significant risk to public safety. The budget focuses funding on our three major mission areas, allocating 41 percent to commercial navigation, 27 percent to flood and storm damage reduction projects, and 9 percent to aquatic ecosystem restoration.    Other investments include allocating 5 percent of the budget to hydropower, 2 percent to the cleanup of sites contaminated during the Nation's early years of the nuclear weapons program, and 4 percent for our regulatory activities. Overall, the budget funds 57 construction projects, 9 of them to completion. It also funds 54 feasibility studies, 13 of those to completion. The budget also includes four new construction starts, two of which the Corps will complete in 1 year.    The budget funds inland waterways capital investments at $974 million of which $53 million will be derived from the Inland Waterways Trust Fund. The budget provides $915 million from the Harbor Maintenance Trust Fund to maintain coastal channels and related work matching the highest amount ever budgeted. Forty-four million dollars is provided for a comprehensive levee safety initiative that will help us ensure that all Federal levees are safe and in line with the Federal Emergency Management Agency standards.    This initiative will provide non-Federal entities with access to levee data that will inform them on safety issues for their levees. The budget supports a Corps program that has a diverse set of tools and approaches to working with local communities, whether this means funding projects with our cost-sharing partners or providing planning assistance and technical expertise to help communities make better informed decisions.    This year, the President's Civil Works budget provides $31 million for the Corps to provide local communities with technical assistance and planning to help them develop and implant nonstructural approaches to improve their resilience to the impacts of climate change. We continue to contribute to this Nation's environmental restoration, and the budget provides funding to restore several large ecosystems that have been a focus of interagency collaboration, including the California Bay Delta, the Chesapeake Bay, the Everglades, the Great Lakes, and the gulf coast.    Other funded Corps efforts include the Columbia River, some portions of the Puget Sound, and priority work in the Upper Mississippi and Missouri Rivers. Finally, this budget continues to fund our Veterans Curation Program which was started in 2009 with support from the American Recovery and Reinvestment Act. This program offers veterans the opportunity to learn tangible work skills and gain experience by rehabilitating and preserving federally owned or administered archeological collections found at Corps projects.    I look forward to working with the committee to advance the Army's Civil Works Program, and I look forward to your questions. Thank you.</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>400204</t>
   </si>
   <si>
-    <t>Eddie Bernice Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman, Ranking Member Napolitano, distinguished members of the committee, for this opportunity to appear before you to discuss the Tennessee Valley Authority's 2016 fiscal year budget. Before I start, I would like to acknowledge the chairman of the TVA board who is sitting right behind me, you might not can see him, Joe Ritch, who is our first chairman from the State of Alabama, and we are delighted to have him here today.    I have been at TVA for 2 years, and in that time I have been humbled by the honor and privilege of serving the 9 million people in the 7 States we work in. Those people engage with TVA in a very responsible way. They pay for all the costs incurred by TVA.    As the Chair noted, TVA's work is self-funded solely by sale to customers and power system financing in the public debt markets. In those 2 years, I have seen how TVA employees have improved relations with our customers, worked to modernize our generation portfolio, protected our natural resources, and improved nuclear and financial performance. We have had some challenges, record weather events, significant cost reduction initiatives, a stagnant economy, aging infrastructure, and the list increased, but we are meeting those challenges and strengthening our organization by focusing on our core mission: energy, environmental stewardship, and economic development.    And this mission matters as much today to the people of the region as it did in 1933, so let me begin with a brief review of TVA's operations. You know, if you are in the energy sector, your first priority has to be safety, so I am pleased to report that we are in the top decile of safety in our industry and always working to get better.    Listening to our customers has been a top priority, and the last several years we have greatly strengthened our relationships with both our local power company and direct-serve customers. Two thousand fourteen was a strong year for TVA financially where we experienced 4 percent more sales to local power companies and our highest net income since 2010. We managed to reduce our debt by more than $1 billion and are well below our $30 billion statutory debt cap. We achieved this while still funding billions of dollars of investments in our infrastructure.    We reduced costs by more than $300 million, which puts us well on our way toward a multiyear effort of $500 million in cost reductions. In 2014, TVA made its final scheduled payment to the U.S. Treasury on Congress' original investment to build the power system at TVA. So we have completely repaid the $1 billion of investment in the power system, plus interest for a total of $3.6 billion.    Our nuclear fleet is expanding and its performance is improving. All six of our nuclear units are in normal regulatory oversight with the NRC, and at our Watts Bar facility, we are 97 percent complete with the last reactor there. It is being finished the right way with safety and high quality. Once operational, this unit will supply 1,150 megawatts of safe, affordable, and carbon-free power to our customers.    In addition to nuclear capacity expansion, we are also investing in other key generating sources to ensure balance across our fleet. We are installing emission control equipment at two TVA fossil plants and constructing two plants that will be powered by natural gas. Our coal ash remediation work at Kingston where a major spill occurred in 2008 is nearly complete. The site has been returned to prespill conditions, and the area has been upgraded with many public conveniences. We are also investing roughly $2 billion to convert all of our coal ash storage from wet to dry systems.    The administration's fiscal year 2014 budget called for a strategic review of options for addressing TVA's financial situation, including the possible divestiture of TVA. So we are pleased the administration has concluded that review and acknowledged TVA's efforts to improve its operational and financial performance and our commitment to live within our capital financing requirements. As part of that review, Lazard Freres, an independent banking firm, did a strategic assessment report which concluded that allowing TVA the opportunity to follow its plan of operational improvement and sustainable financial path would be the best interest of people in the valley and of the American taxpayers. And in my view, that report validated the worth of what TVA employees do every day.    Our preliminary budget for fiscal year 2016 reflects slight load growth for the TVA region. We project revenues of $10.9 billion from the sale of electricity, operating expenses of $8.9 billion, which is a reduction of almost $600 million compared to 2014 operational expenses, and capital expenses of $2.3 billion.    Our capital expenditures include about $250 million for clean air projects and about $1 billion for new generating capacity. Our statutory debt is estimated to be slightly below $25 billion, and outstanding debt and debt-like obligations estimated to be just slightly below $27 billion at the end of 2016.    We see a slight uptick in our debt level this year, but we have a 10-year plan to reduce that debt level down to about $21 billion. So in conclusion, as I traveled throughout the region, I have become a little more enlightened about the people who rely on TVA every day. The job we do each and every day to keep rates low, manage debt, maintain our assets, and be good stewards of what we have been given, is extremely important to the people of that region. So I thank you for the opportunity to be here, and I will be delighted to answer any questions.</t>
   </si>
   <si>
@@ -253,9 +238,6 @@
     <t>412410</t>
   </si>
   <si>
-    <t>Daniel Webster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Webster. Thank you, Mr. Chairman.    Ms. Darcy, the C-111 south Miami-Dade project is crucial for providing water supply for the Everglades National Park and for south Miami-Dade County. One of the remaining two construction contracts is Contract 8, which is a detention area for south--connecting the south Miami-Dade project to the modified water deliveries to the Everglades National Park. Can you provide a status of Contract 8?</t>
   </si>
   <si>
@@ -280,9 +262,6 @@
     <t>412529</t>
   </si>
   <si>
-    <t>Lois Frankel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Frankel. I am here. Thank you. Thank you very much, Mr. Chair, and I know that Mr. Webster agrees with me and would join me in telling you how important the marine industry is to Florida, as I am sure you know. It is probably over $600 billion impact to our economy with hundreds of thousands of jobs, so I join with my colleagues in wanting to have more resources for your agency.    And I wanted to say, I sat in at a Civil Works Review Board process a couple--I think a couple of months ago, and I would really recommend anybody on this committee to go and see how professional and thorough and thoughtful the Army Corps is and you will understand why it takes so long to get through these feasibility studies.    One of the things that we did last year on WRRDA was to allow a non-Federal sponsor to prefund the planning and design and construction phase of our project without congressional authorization but after they got their Chief's Report and then later see credit or reimbursement.    Secretary Darcy, can you--I know that you are working on some guidance, thoughts. Where is the Army Corps in that?</t>
   </si>
   <si>
@@ -325,9 +304,6 @@
     <t>412403</t>
   </si>
   <si>
-    <t>Jeff Denham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Mr. Chairman.    Ms. Darcy, the folks that I represent are following two Federal actions that could have significant impact on flood control projects and the flood plain in my district. Can you tell us what impact you perceive from the proposed Clean Water Act rule and the new Federal flood risk management standard on the Lower San Joaquin River Feasibility Study that is now in its final stages?</t>
   </si>
   <si>
@@ -364,9 +340,6 @@
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Mr. Chairman.    Secretary Darcy and General Bostick, thank you for all that you are doing for all of us. I particularly want to express my appreciation for the willingness of the Corps to deal with some very complex issues on the Sacramento River system. You have dealt with very difficult problems that have occurred on the Feather River. Colonel Farrell and your team have been extraordinarily flexible and innovative in dealing with Native American archeological sites, very tough, very difficult issue, but it has been resolved, and I thank you for that. That allows the 40-mile stretch of the Feather River West Levee to be--for the project to continue, and I thank you for that.    Also, the Hamilton City, Natomas, American River, Delta levees, Yuba River, and even the channels, you are moving forward with all of those, and I appreciate it. Your team in California, both in the San Francisco and the Sacramento district are very engaged and doing some really good work for all of us.    On the budgeting side, we have got work to do here. The Harbor Maintenance Fund has come up. As a ranking member of the Subcommittee on Coast Guard and Maritime Transportation, this is of great interest. The problem is not yours. The problem is ours. We are the ones who set the pace here. You simply have to follow the pace of funding.    And so when we don't provide in law that 100 percent of the funds will be spent and then we allocate and then you follow along with that, so I would say that the problem lies with us as we take up the Coast Guard bill in the next couple of weeks. Perhaps we will give you instructions to spend the money where it was meant to be spent. We will see what happens, whether we are willing to do that. Same way within the waterways. It is really our problem, and you are left to follow the lead that we set out.    I think the question of consultation has come up several times. It is of great concern in our area. I don't think we need to go into it again here unless you would like to tell us all the good work you are trying to do on changing the way in which we consult, start projects early and the rest, so perhaps you would like to pick that up again, and I will leave that to the two of you if you want to comment further on how that program is working on consultations, and particularly listening sessions are good, but they have got to go into more depth than that, so can you explain how you are going to further consult indepth?</t>
   </si>
   <si>
@@ -391,15 +364,9 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman, and thank you, Secretary Darcy, General Bostick, Mr. Johnson. I am a little bit dismayed to hear that I won't be able to question General Peabody anymore. Well, congratulations on your retirement. I feel bad you are not at the table today. You maybe want to pull up a chair?</t>
   </si>
   <si>
-    <t>Peabody</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peabody. No, thank you, sir.</t>
   </si>
   <si>
@@ -421,9 +388,6 @@
     <t>412511</t>
   </si>
   <si>
-    <t>Jared Huffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huffman. Thank you, Mr. Chairman. And my thanks to the witnesses as well. Secretary Darcy, I would like to ask you and General Bostick, if he feels the need to join in, to talk with me about water in the arid West. I don't need to tell you how bad the drought is in California, but obviously you are a key agency when it comes to managing our scarce water resources. You have got lots of multipurpose projects that provide both flood control and water supply benefits.    And one of the things that I have been working on with you and with some of my local stakeholders is modernizing the Corps of Engineers' operating manual and rule curves, which are based on historic hydrology and do not yet incorporate modern weather science, satellite data, things that have come into play long after those manuals were put together back in the 1950s. So I am really heartened that you are participating in a pilot project with the National Weather Service and the Sonoma County Water Agency to see if there are opportunities where the weather data is reliable enough that you can begin considering it when you decide when to release water from these reservoirs.    We may not yet be at a point where we can tell you exactly how much water is going to come from a storm, but I think you are going to find that we are at a point that when there is no storm at all and we know no rain is coming, we know that with a lot of certainty because we have satellites and weather data that we want you to consider and we think should absolutely be part of your decisionmaking process. And toward that end, last year in WRRDA, the Corps was instructed to submit a report within a year on how they could make changes to reservoir operations in arid regions to improve water supply during droughts. I think that this kind of modern forecast-based reservoir operations would be a perfect fit, but I want to just ask you if you are on track to complete that report?</t>
   </si>
   <si>
@@ -451,9 +415,6 @@
     <t>412641</t>
   </si>
   <si>
-    <t>David Rouzer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rouzer. Thank you, Mr. Chairman. I want to thank our witnesses for being here today and availing themselves to us. My questions are going to be directed to the Corps. But before I get into my questions, I want to give a little shout out to a good man that you have in your ranks, our new commander of the Wilmington district, Colonel Kevin Landers. I had the opportunity to meet and visit with him. And he is new on the block. I am new on the block, and so I look forward to forging a very good working relationship not only with him but with you all for a long time to come.    I have some specific questions as it relates to some beaches near and dear to my district and near and dear to my heart. You may not have the specific answer right at hand, but I want to get these in for the record. The first pertains to Wrightsville Beach which is in New Hanover County, right there on the coast obviously. And the question, a couple questions, one is how many additional periodic nourishment cycles could be completed without exceeding the section 902 maximum project cost limit for the Wrightsville Beach Project? And then the second question is what is the status of the Corps developing a Post-Authorization Change Report to seek an increase in the project's authorized total cost in section 902 cost limit?</t>
   </si>
   <si>
@@ -496,9 +457,6 @@
     <t>412649</t>
   </si>
   <si>
-    <t>John Katko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Chairman, and thank you folks for being here this morning. I have a son who is a sophomore at Geneseo University in upstate New York who is in the Army ROTC program, and he just may be smart enough to get in the Army Corps of Engineers some day. I don't know. We will see. But I thank you for the work you have done. In my short time as a congressman I have had some experience already with the Army Corps, coming to my office, meeting with me. I found them to be incredibly professional and incredibly responsive, and I appreciate that. It came from the Buffalo sector, I believe, and so thank you very much for that.    In my district there is a vastly underutilized port called the Port of Oswego. It is the first deepwater port, and I say deepwater with caution, deepwater port in the Great Lakes, and it is really just not utilized as well as it could be. And, in discussing with officials up there on a regular basis, one of the things they bemoan is how long it takes to get dredging approved through the Corps. So, I am not here to cast stones, but I just kind of want to understand the process if you can explain it to me. When a port needs dredging to get it back to the depths where it once was, for example, can you just explain how that process works and what is the average time it takes?</t>
   </si>
   <si>
@@ -526,9 +484,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Chairman. I very much appreciate this hearing, and I appreciate the testimony I have heard so far from our witnesses.    My first question is addressed to Secretary Darcy. Secretary Darcy, a particularly controversial issue in this committee and the Congress has been the Clean Water Act rulemaking. No matter what administration, what EPA, it would always be controversial when you consider how many rivers and streams of the United States are involved.    The President has included $5 million to implement your Clean Water Act activities. Of course this committee last week passed a bill that would essentially require you to toss the whole thing and start all over again. If that bill were to ever pass, and I wonder if anyone ever thought it would pass, but assuming that bill were passed, and that is to say the House, and the Senate, and signed by the President, would the Army Corps need additional funds to carry out all of the requirements provided in that bill?</t>
   </si>
   <si>
@@ -556,9 +511,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Babin. Thank you, Mr. Chairman. I wanted to ask a question of Secretary Darcy. It is my understanding that the Port of Houston, which I represent, and the Corps of Engineers have identified a significant safety concern along the Houston Ship Channel at what we call Bayport Flare; and there is a challenge in finding the appropriate authority to effectively address this situation. It is also my understanding that this is primarily because of a project 902 limit which is restricting the Corps' ability to fix the Bayport Flare.    While 902 is an important provision that helps control costs, it should not be an impediment to addressing an immediate navigation safety concern. If a local entity like the Port of Houston wants to work with the Corps to address these sorts of critical safety concerns, is the Corps permitted to grant a waiver to the 902 limit and allow this critical safety issue to be addressed? Do you have that waiver authority, or will it take congressional authorization? Do you know?</t>
   </si>
   <si>
@@ -701,9 +653,6 @@
   </si>
   <si>
     <t>412426</t>
-  </si>
-  <si>
-    <t>Todd Rokita</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the chairman. I thank the witnesses for their testimony. I couldn't be here for most of it because I happened to be chairing another subcommittee, but I had some staff in the room, and they have listened and reported. And so forgive me if these questions might seem repetitive. I am told they are not.    As a member of the subcommittee, I have been trying to study as best I can the different issues and relaying and applying them to the situation in our State of Indiana, and I come up with these. If the States were to take over the internal waterway dredging, would that free up the Corps to pursue its locks and dams projects faster?</t>
@@ -1522,11 +1471,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1546,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1574,11 +1519,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1598,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1626,11 +1567,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1650,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1678,11 +1615,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1702,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1730,11 +1663,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1756,11 +1687,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1780,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1808,11 +1735,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1832,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1860,11 +1783,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1884,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1912,11 +1831,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1936,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1964,11 +1879,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1988,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2016,11 +1927,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2040,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2068,11 +1975,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2094,11 +1999,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2118,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2146,11 +2047,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2170,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2198,11 +2095,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2222,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2250,11 +2143,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2276,11 +2167,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2302,11 +2191,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2328,11 +2215,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2354,11 +2239,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2378,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2406,11 +2287,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2430,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2458,11 +2335,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2482,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2510,11 +2383,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2534,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2562,11 +2431,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2586,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2612,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2638,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2664,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2690,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2716,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2742,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2768,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2794,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2820,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2846,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2872,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2898,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2924,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2950,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2978,11 +2815,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3002,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3028,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3054,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3080,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3106,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
         <v>78</v>
-      </c>
-      <c r="G63" t="s">
-        <v>79</v>
-      </c>
-      <c r="H63" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3132,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>79</v>
-      </c>
-      <c r="H64" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3160,11 +2983,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3184,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3210,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3236,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
-      </c>
-      <c r="G68" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3262,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3288,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
-      </c>
-      <c r="G70" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3314,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3340,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
-      </c>
-      <c r="G72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>88</v>
-      </c>
-      <c r="H72" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3366,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3392,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3418,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3444,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3470,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3498,11 +3295,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3522,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>102</v>
-      </c>
-      <c r="G79" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3548,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3574,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>102</v>
-      </c>
-      <c r="G81" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3600,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3626,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3652,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3678,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3704,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
-      </c>
-      <c r="G86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>103</v>
-      </c>
-      <c r="H86" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3730,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3756,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>102</v>
-      </c>
-      <c r="G88" t="s">
-        <v>103</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3784,11 +3559,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3808,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>115</v>
-      </c>
-      <c r="G90" t="s">
-        <v>116</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3834,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3860,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>115</v>
-      </c>
-      <c r="G92" t="s">
-        <v>116</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3886,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3912,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>115</v>
-      </c>
-      <c r="G94" t="s">
-        <v>116</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3938,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>115</v>
-      </c>
-      <c r="G95" t="s">
-        <v>116</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3966,11 +3727,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3990,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>124</v>
-      </c>
-      <c r="G97" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4016,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>127</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4042,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>124</v>
-      </c>
-      <c r="G99" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4068,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4094,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
-      </c>
-      <c r="G101" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4120,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>124</v>
-      </c>
-      <c r="G102" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4148,11 +3895,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4172,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
-      </c>
-      <c r="G104" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4198,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4224,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>134</v>
-      </c>
-      <c r="G106" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4250,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4276,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>134</v>
-      </c>
-      <c r="G108" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4302,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4328,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
-      </c>
-      <c r="G110" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4356,11 +4087,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4380,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>144</v>
-      </c>
-      <c r="G112" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4406,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4432,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
-      </c>
-      <c r="G114" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4458,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4484,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>144</v>
-      </c>
-      <c r="G116" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4510,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>144</v>
-      </c>
-      <c r="G117" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4536,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>144</v>
-      </c>
-      <c r="G118" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4562,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>144</v>
-      </c>
-      <c r="G119" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4588,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>144</v>
-      </c>
-      <c r="G120" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4614,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>144</v>
-      </c>
-      <c r="G121" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4642,11 +4351,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4666,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4694,11 +4399,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4718,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>159</v>
-      </c>
-      <c r="G125" t="s">
-        <v>160</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4744,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4770,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>159</v>
-      </c>
-      <c r="G127" t="s">
-        <v>160</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4796,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4822,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>159</v>
-      </c>
-      <c r="G129" t="s">
-        <v>160</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4848,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>159</v>
-      </c>
-      <c r="G130" t="s">
-        <v>160</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4874,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>159</v>
-      </c>
-      <c r="G131" t="s">
-        <v>160</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4902,11 +4591,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4926,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>169</v>
-      </c>
-      <c r="G133" t="s">
-        <v>170</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4952,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4978,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>169</v>
-      </c>
-      <c r="G135" t="s">
-        <v>170</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5004,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5030,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>169</v>
-      </c>
-      <c r="G137" t="s">
-        <v>170</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5056,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>169</v>
-      </c>
-      <c r="G138" t="s">
-        <v>170</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5082,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>169</v>
-      </c>
-      <c r="G139" t="s">
-        <v>170</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5110,11 +4783,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5134,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>179</v>
-      </c>
-      <c r="G141" t="s">
-        <v>180</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5160,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>24</v>
-      </c>
-      <c r="G142" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5186,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>179</v>
-      </c>
-      <c r="G143" t="s">
-        <v>180</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5212,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5238,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>179</v>
-      </c>
-      <c r="G145" t="s">
-        <v>180</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5264,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>24</v>
-      </c>
-      <c r="G146" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5290,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>179</v>
-      </c>
-      <c r="G147" t="s">
-        <v>180</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5318,11 +4975,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5342,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5368,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>24</v>
-      </c>
-      <c r="G150" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5394,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5422,11 +5071,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5448,11 +5095,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5472,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5498,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5524,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5550,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5576,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5602,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
-      </c>
-      <c r="G159" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5628,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5654,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
-      </c>
-      <c r="G161" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5680,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5706,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
-      </c>
-      <c r="G163" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5732,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5758,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
-      </c>
-      <c r="G165" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5784,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5810,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>24</v>
-      </c>
-      <c r="G167" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5836,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5864,11 +5479,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5888,13 +5501,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
-      </c>
-      <c r="G170" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5916,11 +5527,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5940,13 +5549,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
-      </c>
-      <c r="G172" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5968,11 +5575,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5992,13 +5597,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
-      </c>
-      <c r="G174" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6020,11 +5623,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6044,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
-      </c>
-      <c r="G176" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6072,11 +5671,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6096,13 +5693,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>31</v>
-      </c>
-      <c r="G178" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6124,11 +5719,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6148,13 +5741,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
-      </c>
-      <c r="G180" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6176,11 +5767,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6200,13 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>24</v>
-      </c>
-      <c r="G182" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6228,11 +5815,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6252,13 +5837,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6280,11 +5863,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6304,13 +5885,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>24</v>
-      </c>
-      <c r="G186" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6332,11 +5911,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6356,13 +5933,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>228</v>
-      </c>
-      <c r="G188" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6382,13 +5957,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>24</v>
-      </c>
-      <c r="G189" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6408,13 +5981,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>228</v>
-      </c>
-      <c r="G190" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6434,13 +6005,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>24</v>
-      </c>
-      <c r="G191" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6460,13 +6029,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>228</v>
-      </c>
-      <c r="G192" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6486,13 +6053,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>24</v>
-      </c>
-      <c r="G193" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6512,13 +6077,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>228</v>
-      </c>
-      <c r="G194" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6538,13 +6101,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>24</v>
-      </c>
-      <c r="G195" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6564,13 +6125,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>228</v>
-      </c>
-      <c r="G196" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6590,13 +6149,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>228</v>
-      </c>
-      <c r="G197" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6616,13 +6173,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>228</v>
-      </c>
-      <c r="G198" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6642,13 +6197,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>228</v>
-      </c>
-      <c r="G199" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6668,13 +6221,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>228</v>
-      </c>
-      <c r="G200" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6694,13 +6245,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>228</v>
-      </c>
-      <c r="G201" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6720,13 +6269,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>24</v>
-      </c>
-      <c r="G202" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6746,13 +6293,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
+        <v>212</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
         <v>228</v>
-      </c>
-      <c r="G203" t="s">
-        <v>229</v>
-      </c>
-      <c r="H203" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6772,13 +6317,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>24</v>
-      </c>
-      <c r="G204" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6798,13 +6341,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>228</v>
-      </c>
-      <c r="G205" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6824,13 +6365,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>24</v>
-      </c>
-      <c r="G206" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6850,13 +6389,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>228</v>
-      </c>
-      <c r="G207" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6876,13 +6413,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>24</v>
-      </c>
-      <c r="G208" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6902,13 +6437,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>228</v>
-      </c>
-      <c r="G209" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6928,13 +6461,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>24</v>
-      </c>
-      <c r="G210" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6954,13 +6485,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>228</v>
-      </c>
-      <c r="G211" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6980,13 +6509,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>24</v>
-      </c>
-      <c r="G212" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7006,13 +6533,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>228</v>
-      </c>
-      <c r="G213" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7032,13 +6557,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>24</v>
-      </c>
-      <c r="G214" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7058,13 +6581,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>228</v>
-      </c>
-      <c r="G215" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7084,13 +6605,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>24</v>
-      </c>
-      <c r="G216" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7110,13 +6629,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>228</v>
-      </c>
-      <c r="G217" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7136,13 +6653,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>24</v>
-      </c>
-      <c r="G218" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7162,13 +6677,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>228</v>
-      </c>
-      <c r="G219" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7188,13 +6701,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>24</v>
-      </c>
-      <c r="G220" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7214,13 +6725,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>228</v>
-      </c>
-      <c r="G221" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7242,11 +6751,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7266,13 +6773,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>87</v>
-      </c>
-      <c r="G223" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7292,13 +6797,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>24</v>
-      </c>
-      <c r="G224" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7318,13 +6821,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>87</v>
-      </c>
-      <c r="G225" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7344,13 +6845,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>87</v>
-      </c>
-      <c r="G226" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7370,13 +6869,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>24</v>
-      </c>
-      <c r="G227" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7396,13 +6893,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>87</v>
-      </c>
-      <c r="G228" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7424,11 +6919,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7448,13 +6941,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>124</v>
-      </c>
-      <c r="G230" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7474,13 +6965,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>24</v>
-      </c>
-      <c r="G231" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7500,13 +6989,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>124</v>
-      </c>
-      <c r="G232" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7526,13 +7013,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>24</v>
-      </c>
-      <c r="G233" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7552,13 +7037,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>124</v>
-      </c>
-      <c r="G234" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7578,13 +7061,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>24</v>
-      </c>
-      <c r="G235" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7604,13 +7085,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>124</v>
-      </c>
-      <c r="G236" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7630,13 +7109,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>24</v>
-      </c>
-      <c r="G237" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7656,13 +7133,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>124</v>
-      </c>
-      <c r="G238" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7682,13 +7157,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>24</v>
-      </c>
-      <c r="G239" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7708,13 +7181,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>124</v>
-      </c>
-      <c r="G240" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7734,13 +7205,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>124</v>
-      </c>
-      <c r="G241" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7760,13 +7229,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>124</v>
-      </c>
-      <c r="G242" t="s">
-        <v>125</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7788,11 +7255,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7812,13 +7277,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>228</v>
-      </c>
-      <c r="G244" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7838,13 +7301,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>24</v>
-      </c>
-      <c r="G245" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7864,13 +7325,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>228</v>
-      </c>
-      <c r="G246" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7890,13 +7349,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>228</v>
-      </c>
-      <c r="G247" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7916,13 +7373,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>24</v>
-      </c>
-      <c r="G248" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7942,13 +7397,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>228</v>
-      </c>
-      <c r="G249" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7968,13 +7421,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>24</v>
-      </c>
-      <c r="G250" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7994,13 +7445,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>228</v>
-      </c>
-      <c r="G251" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8020,13 +7469,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>24</v>
-      </c>
-      <c r="G252" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8046,13 +7493,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>228</v>
-      </c>
-      <c r="G253" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8072,13 +7517,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>24</v>
-      </c>
-      <c r="G254" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8098,13 +7541,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>228</v>
-      </c>
-      <c r="G255" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8124,13 +7565,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>24</v>
-      </c>
-      <c r="G256" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8150,13 +7589,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>228</v>
-      </c>
-      <c r="G257" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8176,13 +7613,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>24</v>
-      </c>
-      <c r="G258" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8202,13 +7637,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>228</v>
-      </c>
-      <c r="G259" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8228,13 +7661,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>24</v>
-      </c>
-      <c r="G260" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8254,13 +7685,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>228</v>
-      </c>
-      <c r="G261" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8280,13 +7709,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>24</v>
-      </c>
-      <c r="G262" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8306,13 +7733,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>228</v>
-      </c>
-      <c r="G263" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8332,13 +7757,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>24</v>
-      </c>
-      <c r="G264" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8358,13 +7781,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>228</v>
-      </c>
-      <c r="G265" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8386,11 +7807,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>12</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8410,13 +7829,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>14</v>
-      </c>
-      <c r="G267" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8436,13 +7853,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>31</v>
-      </c>
-      <c r="G268" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8462,13 +7877,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>14</v>
-      </c>
-      <c r="G269" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8488,13 +7901,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>31</v>
-      </c>
-      <c r="G270" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8514,13 +7925,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8540,13 +7949,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>31</v>
-      </c>
-      <c r="G272" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8566,13 +7973,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>14</v>
-      </c>
-      <c r="G273" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8594,11 +7999,9 @@
       <c r="F274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
-        <v>12</v>
-      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8618,13 +8021,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>24</v>
-      </c>
-      <c r="G275" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8646,11 +8047,9 @@
       <c r="F276" t="s">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>12</v>
-      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8670,13 +8069,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>24</v>
-      </c>
-      <c r="G277" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8698,11 +8095,9 @@
       <c r="F278" t="s">
         <v>11</v>
       </c>
-      <c r="G278" t="s">
-        <v>12</v>
-      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8722,13 +8117,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>24</v>
-      </c>
-      <c r="G279" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8750,11 +8143,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>12</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8774,13 +8165,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>24</v>
-      </c>
-      <c r="G281" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8802,11 +8191,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8828,11 +8215,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>12</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8854,11 +8239,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8878,13 +8261,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>24</v>
-      </c>
-      <c r="G285" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8906,11 +8287,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8930,13 +8309,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>24</v>
-      </c>
-      <c r="G287" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8958,11 +8335,9 @@
       <c r="F288" t="s">
         <v>11</v>
       </c>
-      <c r="G288" t="s">
-        <v>12</v>
-      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8982,13 +8357,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>24</v>
-      </c>
-      <c r="G289" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9010,11 +8383,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>12</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9034,13 +8405,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>24</v>
-      </c>
-      <c r="G291" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9062,11 +8431,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>12</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9088,11 +8455,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9114,11 +8479,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9140,11 +8503,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9164,13 +8525,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>24</v>
-      </c>
-      <c r="G296" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9192,11 +8551,9 @@
       <c r="F297" t="s">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>12</v>
-      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9216,13 +8573,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>24</v>
-      </c>
-      <c r="G298" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9244,11 +8599,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>12</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9268,13 +8621,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>24</v>
-      </c>
-      <c r="G300" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9296,11 +8647,9 @@
       <c r="F301" t="s">
         <v>11</v>
       </c>
-      <c r="G301" t="s">
-        <v>12</v>
-      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9320,13 +8669,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>24</v>
-      </c>
-      <c r="G302" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9348,11 +8695,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>12</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9372,13 +8717,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>24</v>
-      </c>
-      <c r="G304" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9400,11 +8743,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9424,13 +8765,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>24</v>
-      </c>
-      <c r="G306" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9452,11 +8791,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9476,13 +8813,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>24</v>
-      </c>
-      <c r="G308" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9504,11 +8839,9 @@
       <c r="F309" t="s">
         <v>11</v>
       </c>
-      <c r="G309" t="s">
-        <v>12</v>
-      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9528,13 +8861,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>24</v>
-      </c>
-      <c r="G310" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9556,11 +8887,9 @@
       <c r="F311" t="s">
         <v>11</v>
       </c>
-      <c r="G311" t="s">
-        <v>12</v>
-      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9580,13 +8909,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>14</v>
-      </c>
-      <c r="G312" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9606,13 +8933,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>24</v>
-      </c>
-      <c r="G313" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9632,13 +8957,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>14</v>
-      </c>
-      <c r="G314" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9658,13 +8981,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>24</v>
-      </c>
-      <c r="G315" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9684,13 +9005,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>14</v>
-      </c>
-      <c r="G316" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9710,13 +9029,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>24</v>
-      </c>
-      <c r="G317" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9736,13 +9053,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>14</v>
-      </c>
-      <c r="G318" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9762,13 +9077,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>24</v>
-      </c>
-      <c r="G319" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9788,13 +9101,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>14</v>
-      </c>
-      <c r="G320" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9816,11 +9127,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>12</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9840,13 +9149,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>24</v>
-      </c>
-      <c r="G322" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9868,11 +9175,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9892,13 +9197,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>24</v>
-      </c>
-      <c r="G324" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9920,11 +9223,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>12</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9944,13 +9245,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>24</v>
-      </c>
-      <c r="G326" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9972,11 +9271,9 @@
       <c r="F327" t="s">
         <v>11</v>
       </c>
-      <c r="G327" t="s">
-        <v>12</v>
-      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9998,11 +9295,9 @@
       <c r="F328" t="s">
         <v>11</v>
       </c>
-      <c r="G328" t="s">
-        <v>12</v>
-      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10024,11 +9319,9 @@
       <c r="F329" t="s">
         <v>11</v>
       </c>
-      <c r="G329" t="s">
-        <v>12</v>
-      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10048,13 +9341,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>24</v>
-      </c>
-      <c r="G330" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10076,11 +9367,9 @@
       <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G331" t="s">
-        <v>12</v>
-      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10100,13 +9389,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>24</v>
-      </c>
-      <c r="G332" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10128,11 +9415,9 @@
       <c r="F333" t="s">
         <v>11</v>
       </c>
-      <c r="G333" t="s">
-        <v>12</v>
-      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
